--- a/ResultadoEleicoesDistritos/ÉVORA_ÉVORA.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_ÉVORA.xlsx
@@ -597,64 +597,64 @@
         <v>13886</v>
       </c>
       <c r="H2" t="n">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="I2" t="n">
-        <v>1425</v>
+        <v>1340</v>
       </c>
       <c r="J2" t="n">
-        <v>5731</v>
+        <v>5817</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L2" t="n">
         <v>1558</v>
       </c>
       <c r="M2" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N2" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S2" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="T2" t="n">
-        <v>986</v>
+        <v>933</v>
       </c>
       <c r="U2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V2" t="n">
-        <v>8868</v>
+        <v>8992</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8919</v>
+        <v>8816</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
